--- a/biology/Médecine/ProMED-mail/ProMED-mail.xlsx
+++ b/biology/Médecine/ProMED-mail/ProMED-mail.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">ProMed (aussi connu sous le nom de ProMed-Mail ou Program for Monitoring Emerging Diseases)  est à la fois le nom d'un système d'information et du programme international de veille épidémiologique et éco-épidémiologique sur les maladies émergentes qui lui correspond. 
 Avec environ 50 000 participants dans le monde, c'est un des dispositifs les plus importants au monde sur ce sujet.
@@ -512,7 +524,9 @@
           <t>Enjeux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Avec le développement démographique de l'humanité, la déforestation et surtout en raison du développement de la vitesse et de l'étendue des réseaux de transport (aériens notamment), l'homme est plus susceptible d'être confronté à des virus, microbes ou parasites susceptibles d'induire des maladies émergentes, éventuellement graves et éventuellement susceptible de prendre des proportions pandémiques, et les virus ou microbes sont susceptibles d'être rapidement dispersés via les réseaux de transport de personnes, mais aussi de marchandise, de végétaux, et d'animaux. 
 De grandes pandémies pourraient avoir des coûts humains, sociaux et financiers très élevés. 
@@ -547,7 +561,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Fondée en 1994 pour valoriser les nouveaux moyens des NTIC dans le domaine de la veille épidémiologique, ProMed a été ensuite (depuis 1999) administrativement porté par l'« International Society for Infectious Diseases ». 
 ProMED-mail compte aujourd'hui plus de 50.000 participants, répartis dans plus de 185 pays, qui cherchent à détecter, vérifier et signaler les émergences de pathogènes nouveaux aussi tôt que possible. 
@@ -579,7 +595,9 @@
           <t>Déclaration de maladies (Reporting)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">ProMED-mail édite et transmet au réseau - via l'Internet - environ 7 rapports quotidiens décrivant des éclosions locales de maladies infectieuses ou de parasitoses ; avec des commentaires, éventuellement modérateurs d'experts, quasiment en temps réel. 
 Avec le temps, l'épidémiologie tend à se rapprocher de l'écoépidémiologie et des sciences vétérinaires, car ce type de veille a confirmé qu'environ 70 % des maladies humaines émergentes ont pour origine un microbe ou un parasite qui infectait ou infestait déjà d'autres espèces animales (voire des plantes ou des champignons). Inversement, des pathogènes humains connus peuvent infecter des animaux (d'élevages notamment) et des microbes devenus antibiorésistants à la suite d'un large usage des antibiotiques peuvent passer de l'homme à l'animal et inversement, ou d'une espèce animale à une autre. De même des entités non vivantes et pathogènes comme les virus ou prions pathogènes.
@@ -613,7 +631,9 @@
           <t>L'indépendance de ProMED-mail</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est jugée essentielle par le réseau, car permettant :
 la rapidité de la diffusion d'informations vitales
@@ -649,7 +669,9 @@
           <t>Collaborations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">ProMED-mail (avec Healthmap) a été primé en octobre 2008 par l'initiative Google.org Predict and Prevent initiative. 
 Cette collaboration associe le réseau mondial de ProMED-mail à un réseau d'experts des maladies humaines, animales mais aussi d'écologues (Cf. santé des écosystèmes) avec des efforts de détection informatiquement assistée (HealthMap).
